--- a/src/static/xlsx/df_api_name_xlsx.xlsx
+++ b/src/static/xlsx/df_api_name_xlsx.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19844090.0000000000000000</t>
+          <t>19844146.0000000000000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1645408213162.3085423711777190</t>
+          <t>1640248960295.1369090349726480</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>219447239944.2114512478497129</t>
+          <t>219789619617.6456165204498446</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>144472528344.4947595458365958</t>
+          <t>144572826467.6962036678813043</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>125128539404.0488101244391484</t>
+          <t>125186112383.7745678039314930</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>87075359850.5724607777222570</t>
+          <t>87021319706.7397742896223370</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>512293807.5507926300000000</t>
+          <t>512293263.8307307000000000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64173621326.0654427258974176</t>
+          <t>64516403178.5522130215043313</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60242525341.8881500000000000</t>
+          <t>60236504303.7019500000000000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60263652571.4768036023903822</t>
+          <t>60276486109.2381032593167255</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>148644126383.7052300000000000</t>
+          <t>148646376383.7052600000000000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25192339632.7758404781160303</t>
+          <t>25302161517.1315210857265727</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>23723258891.0099981885348963</t>
+          <t>23656821536.7250640811093821</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94994605853.7637200000000000</t>
+          <t>94994333997.7867700000000000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>21915590545.0177149452066276</t>
+          <t>22056184654.8066386735893122</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9367578.0451454800000000</t>
+          <t>9369845.3549515900000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17013824733.8718290823942758</t>
+          <t>16957421840.3914232582453571</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10598806295.6447535423859155</t>
+          <t>10651186259.2910045703517397</t>
         </is>
       </c>
     </row>
@@ -867,13 +867,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2484528578.6548066000000000</t>
+          <t>2484542062.4234138000000000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9472862912.8328174480942813</t>
+          <t>9529023335.0241017484849028</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8958597212.6335910550156019</t>
+          <t>8954351677.3079132027220047</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>923836969.9000000000000000</t>
+          <t>923836227.9000000000000000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8901839290.0928122997258208</t>
+          <t>8872243688.0512987094671505</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30787178407.4941640000000000</t>
+          <t>30787176939.1180700000000000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8265176800.0094639130424089</t>
+          <t>8290250469.9571153235708102</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>414844783.0787661700000000</t>
+          <t>414849355.3863750700000000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8051635600.1507045998396600</t>
+          <t>7973734405.4716769213739920</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7482713340.3192561276521836</t>
+          <t>7505387941.3525617497911146</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>589250822785832.4000000000000000</t>
+          <t>589250806511191.1000000000000000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7426139533.0259675745838750</t>
+          <t>7398849788.8317374386178692</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7199344865.4500467226974255</t>
+          <t>7208477074.0156110196868859</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6524123028.5938966723779963</t>
+          <t>6522591761.0388751037396584</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6207093548.6842221570056020</t>
+          <t>6228680426.7216008367928580</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6155101635.7528262072104602</t>
+          <t>6141160834.4786551312441554</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6075993196.3036925716925741</t>
+          <t>6107873472.7340724096157919</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19849115.6250000000000000</t>
+          <t>19849190.6250000000000000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6056506018.1945628304810350</t>
+          <t>6021817337.0736931400883759</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5500491881.5415703600000000</t>
+          <t>5481735598.3273236000000000</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5361791683.7172770712587038</t>
+          <t>5363979615.6309226098688028</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5247255782.7102750000000000</t>
+          <t>5247294871.9158745000000000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5246902513.3316238460008273</t>
+          <t>5247412114.9872493760720054</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6773814332.2604940000000000</t>
+          <t>6773820584.9916540000000000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5167207446.9047400375356706</t>
+          <t>5229989792.7255213626504517</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4201769039.5293132697724700</t>
+          <t>4233479417.2649526225101300</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4008181468.8650203385339444</t>
+          <t>4001361012.7361642088676773</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3749159627.7413234019014864</t>
+          <t>3744779234.8347098424508687</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>604031596.5939680000000000</t>
+          <t>604052367.6645604000000000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3195108080.1067342020275697</t>
+          <t>3243768059.3870029965449108</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3160198965.9692502467403296</t>
+          <t>3159685052.9563588262964288</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2967439521.6201030865441585</t>
+          <t>2970917462.3681817109846583</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2912819056.6660053240000000</t>
+          <t>2907341998.8815879100000000</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2769337703.7960085895384152</t>
+          <t>2789594008.3855256475225048</t>
         </is>
       </c>
     </row>
@@ -1673,19 +1673,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2699772651.6693683250662620</t>
+          <t>2666121460.4147574419896050</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1695,29 +1695,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>482076932.8747825000000000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
-        </is>
-      </c>
+          <t>2588088088.1678160000000000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2591823755.8688453073314074</t>
+          <t>2583488274.1485271788557057</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1727,13 +1723,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2588088088.1678160000000000</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>482076964.6058819000000000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.dfinityexplorer.org/#/</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2583960590.5102734226441160</t>
+          <t>2582013199.2360279157632581</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2527930536.2107285663304451</t>
+          <t>2532221474.7553823737799940</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>151321540.2914661500000000</t>
+          <t>151323700.0354661600000000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2518538271.2183289311813451</t>
+          <t>2521872817.7973148218595475</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15093850.1019675900000000</t>
+          <t>15094302.1830386200000000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2480477522.3127977983604312</t>
+          <t>2495770052.6066782708289652</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2125677493.8637828266678834</t>
+          <t>2128549485.6387426687338750</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>199999429.1037350000000000</t>
+          <t>199999429.0808760000000000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1893,19 +1893,19 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2035525360.1065975143096493</t>
+          <t>2043021774.2744651994250689</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1915,29 +1915,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://explore.veforge.com/</t>
-        </is>
-      </c>
+          <t>5285937500.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1964184580.0370603932843252</t>
+          <t>1971238836.0240466259375000</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1947,29 +1943,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8534124.0000000000000000</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1945000796.7737817470563632</t>
+          <t>1957221777.6802743803596853</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1979,25 +1975,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>8534124.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1944153476.2849278632812500</t>
+          <t>1954152336.9872840131021680</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2007,29 +2007,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>579488884.7562950000000000</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/celestia</t>
-        </is>
-      </c>
+          <t>85826705.1921835000000000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1914708485.3858905839257909</t>
+          <t>1915660703.8278574641191259</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2039,13 +2035,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>85826628.2767399300000000</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>580696175.3830050000000000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/celestia</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1912748173.4635396020805350</t>
+          <t>1909245121.7421487237403423</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1827864130.9687097878394158</t>
+          <t>1823232881.2179842857605215</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>646143249.0000000000000000</t>
+          <t>646157090.0000000000000000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1783390606.6825216231768563</t>
+          <t>1792330192.6139380210552540</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1683788927.3133535968270408</t>
+          <t>1684291847.4368591959916100</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>25942485466.1023500000000000</t>
+          <t>25943375617.3953000000000000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1673393918.4620271640847856</t>
+          <t>1668570286.4069002536231456</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8530769996.2217810000000000</t>
+          <t>8530799349.0386210000000000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1558994329.6481137488808930</t>
+          <t>1550235234.2330097548484978</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1540384598.0423855366826552</t>
+          <t>1544694415.8722898297819344</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1474887064.7361723171876779</t>
+          <t>1469087030.1278762223148295</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1409566141.7837159040000000</t>
+          <t>1441217320.2715824000000000</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>258745395.0000000000000000</t>
+          <t>258757414.0000000000000000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1367199664.4673207316714155</t>
+          <t>1365723645.1441229663969236</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1358654517.0417458659000833</t>
+          <t>1358814431.5054888280012678</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1300386060.1236361107200213</t>
+          <t>1308274238.4936730722929462</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1220425171.5658997786197620</t>
+          <t>1224294268.2745694820273906</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1193721337.8999644400000000</t>
+          <t>1199234070.5726901240000000</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1083807750.8223584676369527</t>
+          <t>1080840054.7898140441822524</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1069253786.7841127550000000</t>
+          <t>1061427306.7412964600000000</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1043799394.3845735966682584</t>
+          <t>1048917900.2419877429568811</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>971463395.1974062978635984</t>
+          <t>962710485.1178215880980754</t>
         </is>
       </c>
     </row>
@@ -2599,13 +2599,13 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1214526120.0344640000000000</t>
+          <t>1214684893.7497473000000000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>954345596.6503831522625351</t>
+          <t>956603267.4592154758091895</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1519229293.8326400000000000</t>
+          <t>1519244275.4994400000000000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2637,19 +2637,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>951776872.6014462734626158</t>
+          <t>951106085.1923675402162997</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wrapped BNB</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2659,29 +2659,29 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1582884.5398480400000000</t>
+          <t>1555739230.6061000000000000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>950892872.4217079056947832</t>
+          <t>923870272.6281276354038847</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2691,29 +2691,29 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1555708008.4996000000000000</t>
+          <t>898876668.3664447000000000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>939381108.3260441224465711</t>
+          <t>896443286.3304420507741820</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2723,29 +2723,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>899129894.3078742000000000</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
-        </is>
-      </c>
+          <t>77894175221082.5500000000000000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>897098518.1013240661011999</t>
+          <t>889663158.2465115580246982</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2755,13 +2751,13 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>77894175221082.5500000000000000</t>
+          <t>381867255.1445740000000000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>885864781.8351067450829436</t>
+          <t>880519521.9775759180935016</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2789,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>876926157.9498841890478749</t>
+          <t>880303895.7792685277166468</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2817,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>872215392.1541441497312826</t>
+          <t>874659863.1400057228904559</t>
         </is>
       </c>
     </row>
@@ -2853,19 +2849,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>870536980.8628373050907274</t>
+          <t>873766230.7869549691245926</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2875,25 +2871,29 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>12072738.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>864185142.9753558143632849</t>
+          <t>842221118.0749572679558842</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2903,29 +2903,29 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>843429263.2225833415663452</t>
+          <t>823678060.5475428000000000</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2935,29 +2935,29 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>60983663777.0100000000000000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>828708154.0332393000000000</t>
+          <t>816859664.8609454881909348</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2967,29 +2967,29 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
+          <t>802871349.4263150000000000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>811028179.4564724563828983</t>
+          <t>801755064.9374721992919983</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2999,29 +2999,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>802871349.4263150000000000</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>801668858.5420229872356842</t>
+          <t>788704900.7558732265760000</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3031,25 +3027,29 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>897877243.8587132000000000</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>796326003.0156102897520000</t>
+          <t>781379676.2433544329374375</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3059,29 +3059,29 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>897877243.8587132000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>780317062.5935810025694505</t>
+          <t>766850704.4662662907722900</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3091,29 +3091,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>765659590.4938563644343640</t>
+          <t>692650683.3817263871942253</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3123,29 +3123,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>310420802.2000000000000000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>704079373.1665961097102343</t>
+          <t>687649153.6546052887075396</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>310420802.2000000000000000</t>
+          <t>43759805521.5825650000000000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>685468164.5941109403155227</t>
+          <t>680045192.3683219439012783</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3187,29 +3187,29 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>43759808799.6019300000000000</t>
+          <t>1036889881.7602220000000000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>680364927.7310300235442452</t>
+          <t>678733945.6015046215045084</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3219,29 +3219,29 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1036876078.8643710000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>678818981.6070353497686342</t>
+          <t>673817278.8508059835661567</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3251,29 +3251,29 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>673989427.5158484127737979</t>
+          <t>665111326.8744733552470000</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3283,29 +3283,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>662896208.4566578475943000</t>
+          <t>657904697.3275755032443464</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3315,29 +3315,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
+          <t>3688810566.0000000000000000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>658968358.7340295753568244</t>
+          <t>638583275.6180600772409038</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3347,29 +3347,29 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3688810566.0000000000000000</t>
+          <t>19844809.3750000000000000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>637384765.0071368569770990</t>
+          <t>634732366.0605547092310184</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3379,29 +3379,29 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>19844753.1250000000000000</t>
+          <t>1307677861.0000000000000000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>633674877.0049848252132959</t>
+          <t>626937381.9589419566087263</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3411,29 +3411,29 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1307661214.0000000000000000</t>
+          <t>5966455361.8200000000000000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>627354773.7188190044687594</t>
+          <t>615602294.8735102176225042</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3443,17 +3443,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>1572540589.3190167000000000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>615611382.4723362714061124</t>
+          <t>603982786.9653913847294747</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>301835405.9816226000000000</t>
+          <t>301827011.9503255500000000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3485,19 +3485,19 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>602971122.7621005997221797</t>
+          <t>603256598.4201746924280772</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3507,29 +3507,29 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1572540589.3190167000000000</t>
+          <t>179760925.5581076000000000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>601698908.4465558868337893</t>
+          <t>580993082.2828975998660789</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3539,29 +3539,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>179760925.5581076000000000</t>
+          <t>15886821.0000000000000000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>577243810.8613764417435043</t>
+          <t>577975481.8337583752467905</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3571,29 +3571,29 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>35599404.0400000000000000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>575776967.8990471133680497</t>
+          <t>568828997.7816418592318523</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3603,17 +3603,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>35599404.0400000000000000</t>
+          <t>9626637864609.9200000000000000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0xfb5b838b6cfeedc2873ab27866079ac55363d37e</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>569792890.0385989300074013</t>
+          <t>564432126.5460840580509535</t>
         </is>
       </c>
     </row>

--- a/src/static/xlsx/df_api_name_xlsx.xlsx
+++ b/src/static/xlsx/df_api_name_xlsx.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1640248960295.1369090349726480</t>
+          <t>1641207194690.0496751118614856</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>219789619617.6456165204498446</t>
+          <t>220337252974.8080123838024198</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>144572826467.6962036678813043</t>
+          <t>144586473851.1634674818780778</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>125186112383.7745678039314930</t>
+          <t>125766898323.9507969950387880</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>87021319706.7397742896223370</t>
+          <t>87094124885.8377206369660350</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64516403178.5522130215043313</t>
+          <t>64667504451.9554172585768273</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60276486109.2381032593167255</t>
+          <t>60234813484.9852638176274960</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25302161517.1315210857265727</t>
+          <t>25346141527.2654701328672700</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>23656821536.7250640811093821</t>
+          <t>23691787244.0958637037073023</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22056184654.8066386735893122</t>
+          <t>22064228294.1331864591042335</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16957421840.3914232582453571</t>
+          <t>16968716904.4478553023259903</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10651186259.2910045703517397</t>
+          <t>10659986060.5154514315835009</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9529023335.0241017484849028</t>
+          <t>9643303953.7450280165809951</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8954351677.3079132027220047</t>
+          <t>8967880690.4364066445444603</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8872243688.0512987094671505</t>
+          <t>8872512198.8648064386231368</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8290250469.9571153235708102</t>
+          <t>8296295563.3303270159417646</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7973734405.4716769213739920</t>
+          <t>7992201792.6457126562201759</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7505387941.3525617497911146</t>
+          <t>7517552122.1259767378015129</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7398849788.8317374386178692</t>
+          <t>7412444842.7264710448046345</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7208477074.0156110196868859</t>
+          <t>7217873319.0679865555636077</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6522591761.0388751037396584</t>
+          <t>6527147267.3570225263640705</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6228680426.7216008367928580</t>
+          <t>6242045410.1634044404447100</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6141160834.4786551312441554</t>
+          <t>6140514860.9344141927812286</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6107873472.7340724096157919</t>
+          <t>6111778234.6691275847676367</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6021817337.0736931400883759</t>
+          <t>6032029266.7718930453094159</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5481735598.3273236000000000</t>
+          <t>5481899749.2262106400000000</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5363979615.6309226098688028</t>
+          <t>5364602397.9696044243195854</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5247412114.9872493760720054</t>
+          <t>5247501502.8275667023314166</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5229989792.7255213626504517</t>
+          <t>5237699589.2823942380839243</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4233479417.2649526225101300</t>
+          <t>4237394546.0899766238032760</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4001361012.7361642088676773</t>
+          <t>4005469081.4247078064784749</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3744779234.8347098424508687</t>
+          <t>3752579971.8915311454245716</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3243768059.3870029965449108</t>
+          <t>3247459454.5931240530693347</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3159685052.9563588262964288</t>
+          <t>3170749559.1958473538077664</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2970917462.3681817109846583</t>
+          <t>2973819546.1643635286852595</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2907341998.8815879100000000</t>
+          <t>2905169116.5169184340000000</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2789594008.3855256475225048</t>
+          <t>2797454361.2166424025848240</t>
         </is>
       </c>
     </row>
@@ -1673,19 +1673,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2666121460.4147574419896050</t>
+          <t>2667981155.8194357292965915</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1695,25 +1695,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2588088088.1678160000000000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>482076964.6058819000000000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.dfinityexplorer.org/#/</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2583488274.1485271788557057</t>
+          <t>2584064946.9123296479551339</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1723,17 +1727,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>482076964.6058819000000000</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
-        </is>
-      </c>
+          <t>2588088088.1678160000000000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2582013199.2360279157632581</t>
+          <t>2583280325.3536634597306508</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2532221474.7553823737799940</t>
+          <t>2536838011.8351593535535569</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2521872817.7973148218595475</t>
+          <t>2519332462.8535555526326694</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2495770052.6066782708289652</t>
+          <t>2502723147.5483450756625085</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2128549485.6387426687338750</t>
+          <t>2132526451.9658020452506153</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2043021774.2744651994250689</t>
+          <t>2043751583.7729966744552976</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1971238836.0240466259375000</t>
+          <t>1974168246.4874274039062500</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1957221777.6802743803596853</t>
+          <t>1960605547.5072636065451263</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1954152336.9872840131021680</t>
+          <t>1960187670.1666764025242768</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1915660703.8278574641191259</t>
+          <t>1917352673.0831533078970259</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1909245121.7421487237403423</t>
+          <t>1911368024.4000523827148876</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1823232881.2179842857605215</t>
+          <t>1829675548.5288383782389746</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1792330192.6139380210552540</t>
+          <t>1794346876.4148975404160060</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1684291847.4368591959916100</t>
+          <t>1687107422.5141181281472516</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1668570286.4069002536231456</t>
+          <t>1672487758.0683583333113078</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1550235234.2330097548484978</t>
+          <t>1552633403.3903020859105310</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1544694415.8722898297819344</t>
+          <t>1547508740.9621073660913224</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1469087030.1278762223148295</t>
+          <t>1469108246.9620492698586157</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1441217320.2715824000000000</t>
+          <t>1444885033.7650688640000000</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1365723645.1441229663969236</t>
+          <t>1367680428.0332902066306528</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1358814431.5054888280012678</t>
+          <t>1358888696.5070987524859802</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1308274238.4936730722929462</t>
+          <t>1311417512.5856234733158540</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1224294268.2745694820273906</t>
+          <t>1226760960.9952483908518358</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1199234070.5726901240000000</t>
+          <t>1202451897.8549062440000000</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1080840054.7898140441822524</t>
+          <t>1083740388.2342325489542163</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1061427306.7412964600000000</t>
+          <t>1065454198.6407229750000000</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1048917900.2419877429568811</t>
+          <t>1049250389.0667149854776313</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>962710485.1178215880980754</t>
+          <t>962507580.9806229712757570</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>956603267.4592154758091895</t>
+          <t>958571455.1192458108830055</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>951106085.1923675402162997</t>
+          <t>953591446.1190479056549185</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>923870272.6281276354038847</t>
+          <t>924549006.9580034266694475</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>889663158.2465115580246982</t>
+          <t>891548861.1944960000654884</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>880519521.9775759180935016</t>
+          <t>882787928.7271338279235106</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>880303895.7792685277166468</t>
+          <t>881726841.4225415106382148</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>874659863.1400057228904559</t>
+          <t>876452745.4987871402788793</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>873766230.7869549691245926</t>
+          <t>875455769.9508351999554378</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>842221118.0749572679558842</t>
+          <t>843164617.3574918256825774</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>823678060.5475428000000000</t>
+          <t>825090255.4090631000000000</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>816859664.8609454881909348</t>
+          <t>815748307.4967140905742437</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>801755064.9374721992919983</t>
+          <t>801762690.4410470682681000</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>788704900.7558732265760000</t>
+          <t>792133992.3010214393520000</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>781379676.2433544329374375</t>
+          <t>781963907.7790665377340163</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>766850704.4662662907722900</t>
+          <t>767207208.6997688288921932</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>692650683.3817263871942253</t>
+          <t>692716043.1744293225867631</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>687649153.6546052887075396</t>
+          <t>689328171.0181693643410743</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>680045192.3683219439012783</t>
+          <t>682073294.9507409179461589</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>678733945.6015046215045084</t>
+          <t>679515144.1914802995852663</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>673817278.8508059835661567</t>
+          <t>674628377.5776187305721227</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>665111326.8744733552470000</t>
+          <t>664200063.8926383444105000</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>657904697.3275755032443464</t>
+          <t>658079319.4493791258409206</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>638583275.6180600772409038</t>
+          <t>639076930.0121098553281614</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>634732366.0605547092310184</t>
+          <t>635134845.9482837969501684</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>626937381.9589419566087263</t>
+          <t>629929521.8492605763358876</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>615602294.8735102176225042</t>
+          <t>618044828.8354813040505744</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>603982786.9653913847294747</t>
+          <t>604688115.9882250625751175</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>603256598.4201746924280772</t>
+          <t>604192008.2020432893830351</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>580993082.2828975998660789</t>
+          <t>584083082.9055908344448669</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>577975481.8337583752467905</t>
+          <t>578906400.6221349658349037</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>568828997.7816418592318523</t>
+          <t>569217007.7225569586693963</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>564432126.5460840580509535</t>
+          <t>566159850.6601782715478274</t>
         </is>
       </c>
     </row>

--- a/src/static/xlsx/df_api_name_xlsx.xlsx
+++ b/src/static/xlsx/df_api_name_xlsx.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19844146.0000000000000000</t>
+          <t>19847109.0000000000000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1641207194690.0496751118614856</t>
+          <t>1640947393817.6824119738084840</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>120654453.5456346000000000</t>
+          <t>120669506.1018683600000000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>220337252974.8080123838024198</t>
+          <t>215249874413.7834861364681016</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>144182349120.7869600000000000</t>
+          <t>144086679997.8651000000000000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>144586473851.1634674818780778</t>
+          <t>144158095118.3066533217801897</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>58205697378.0000000000000000</t>
+          <t>58274974538.0000000000000000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>125766898323.9507969950387880</t>
+          <t>123856459652.5372904837393256</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>87094124885.8377206369660350</t>
+          <t>85330156862.0396640626496780</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>512293263.8307307000000000</t>
+          <t>514580874.0812797500000000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64667504451.9554172585768273</t>
+          <t>60631972808.4811223929766631</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60236504303.7019500000000000</t>
+          <t>60542738459.4731000000000000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60234813484.9852638176274960</t>
+          <t>60580848078.2786187345140772</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>148646376383.7052600000000000</t>
+          <t>148726896383.7052600000000000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25346141527.2654701328672700</t>
+          <t>24928070555.0119570966035434</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35242104181.1897300000000000</t>
+          <t>35274323538.5824200000000000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>23691787244.0958637037073023</t>
+          <t>22865065662.8744578773660784</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94994333997.7867700000000000</t>
+          <t>94979760468.1197400000000000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22064228294.1331864591042335</t>
+          <t>22589315819.8043634161614664</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9369845.3549515900000000</t>
+          <t>9370151.3826897100000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16968716904.4478553023259903</t>
+          <t>16756059889.4514231568212833</t>
         </is>
       </c>
     </row>
@@ -845,19 +845,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10659986060.5154514315835009</t>
+          <t>10656411369.0573506869599235</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,25 +867,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2484542062.4234138000000000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>657099970.4527867000000000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9643303953.7450280165809951</t>
+          <t>8301534641.6170590400360544</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -895,29 +899,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>657099970.4527867000000000</t>
+          <t>923789528.9000000000000000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8967880690.4364066445444603</t>
+          <t>8287333804.1295789321631347</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -927,17 +931,13 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>923836227.9000000000000000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
-        </is>
-      </c>
+          <t>2473132255.3164530000000000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8872512198.8648064386231368</t>
+          <t>8008955118.0831404447621135</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30787176939.1180700000000000</t>
+          <t>30779409432.8285700000000000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8296295563.3303270159417646</t>
+          <t>7740402090.2559605904320000</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>414849355.3863750700000000</t>
+          <t>415273896.7471752000000000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7992201792.6457126562201759</t>
+          <t>7421393045.9097340188513441</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3169845047.4838877000000000</t>
+          <t>3249982900.4588876000000000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7517552122.1259767378015129</t>
+          <t>7154162377.1515119130293022</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>589250806511191.1000000000000000</t>
+          <t>589250627619579.1000000000000000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7412444842.7264710448046345</t>
+          <t>7147241252.3266404843021184</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7217873319.0679865555636077</t>
+          <t>6773147434.8366351473931346</t>
         </is>
       </c>
     </row>
@@ -1129,19 +1129,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6527147267.3570225263640705</t>
+          <t>6214608667.2693448631743753</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
+          <t>974778351.8199997000000000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6242045410.1634044404447100</t>
+          <t>6090681214.8712444916850905</t>
         </is>
       </c>
     </row>
@@ -1193,19 +1193,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6140514860.9344141927812286</t>
+          <t>6037505674.5741912083511275</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>974778351.8199997000000000</t>
+          <t>1522267060.0000000000000000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6111778234.6691275847676367</t>
+          <t>5957644230.7071518186087960</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19849190.6250000000000000</t>
+          <t>19851893.7500000000000000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6032029266.7718930453094159</t>
+          <t>5911180444.7640456262426650</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>Bitcoin BEP2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1279,17 +1279,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1200000000.0000000000000000</t>
+          <t>65207.7185638300000000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>https://explorer.binance.org/asset/BTCB-1DE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5481899749.2262106400000000</t>
+          <t>5392816778.6914215340936755</t>
         </is>
       </c>
     </row>
@@ -1321,19 +1321,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5364602397.9696044243195854</t>
+          <t>5364356996.4713515371258321</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1343,29 +1343,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5247294871.9158745000000000</t>
+          <t>1200000000.0000000000000000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5247501502.8275667023314166</t>
+          <t>5313756912.5594170800000000</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pi</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1375,29 +1375,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6773820584.9916540000000000</t>
+          <t>5235230043.6859240000000000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5237699589.2823942380839243</t>
+          <t>5230008555.2081676308424175</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Pi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>333928180.0000000000000000</t>
+          <t>6817635541.7240010000000000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4237394546.0899766238032760</t>
+          <t>4263408751.3117554365209968</t>
         </is>
       </c>
     </row>
@@ -1449,19 +1449,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4005469081.4247078064784749</t>
+          <t>3989850292.4939515478230369</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1471,29 +1471,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>628494054.7100000000000000</t>
+          <t>333928180.0000000000000000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3752579971.8915311454245716</t>
+          <t>3866680214.1601546337318820</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1503,29 +1503,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>604052367.6645604000000000</t>
+          <t>628494054.7100000000000000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3247459454.5931240530693347</t>
+          <t>3645016473.7623243907900626</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1198396448.0000000000000000</t>
+          <t>60000000.0000000000000000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3170749559.1958473538077664</t>
+          <t>3045191332.4095755240000000</t>
         </is>
       </c>
     </row>
@@ -1577,19 +1577,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2973819546.1643635286852595</t>
+          <t>2942353997.0769901976803849</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Near Protocol</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1599,29 +1599,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
+          <t>1199614769.0000000000000000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2905169116.5169184340000000</t>
+          <t>2918659484.3476316135894687</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1631,29 +1631,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
+          <t>604650885.7836708000000000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2797454361.2166424025848240</t>
+          <t>2906826188.5603053753944556</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1663,29 +1663,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
+          <t>3159107529.0000000000000000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2667981155.8194357292965915</t>
+          <t>2537686913.8284782549010255</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1695,29 +1695,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>482076964.6058819000000000</t>
+          <t>3364694382.8368406000000000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2584064946.9123296479551339</t>
+          <t>2472288237.1511251710410917</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1727,25 +1727,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2588088088.1678160000000000</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>26571560696.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2583280325.3536634597306508</t>
+          <t>2438706652.0469408786703368</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1755,29 +1759,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>151402073.8391831200000000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2536838011.8351593535535569</t>
+          <t>2410455043.4839092350723783</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1787,17 +1791,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>151323700.0354661600000000</t>
+          <t>482992475.5035915400000000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2519332462.8535555526326694</t>
+          <t>2409718460.6551102003601001</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1823,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15094302.1830386200000000</t>
+          <t>15097419.5458131100000000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1829,19 +1833,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2502723147.5483450756625085</t>
+          <t>2276313816.1773606594775371</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1851,29 +1855,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10392099602.6534290000000000</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
-        </is>
-      </c>
+          <t>2188129088.9713880000000000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2132526451.9658020452506153</t>
+          <t>2167216976.1606852091817845</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>POL (prev. MATIC)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1883,29 +1883,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>199999429.0808760000000000</t>
+          <t>10398846835.3077500000000000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2043751583.7729966744552976</t>
+          <t>1960010209.9592890963797052</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1915,25 +1915,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>390934204.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1974168246.4874274039062500</t>
+          <t>1909108997.3702751555458948</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1943,29 +1947,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://explore.veforge.com/</t>
-        </is>
-      </c>
+          <t>85826595.3959600300000000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1960605547.5072636065451263</t>
+          <t>1902954098.7096944536091161</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1975,29 +1975,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8534124.0000000000000000</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1960187670.1666764025242768</t>
+          <t>1852770939.7797657384643680</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2007,25 +2007,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>85826705.1921835000000000</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>8561026.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1917352673.0831533078970259</t>
+          <t>1837178611.9568203149177144</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2035,29 +2039,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>580696175.3830050000000000</t>
+          <t>199999426.5724160000000000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1911368024.4000523827148876</t>
+          <t>1834176331.8839032563438319</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2067,13 +2071,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>517716590.0562826400000000</t>
+          <t>5553125000.0000000000000000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1829675548.5288383782389746</t>
+          <t>1762693781.1825192071875000</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2099,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>646157090.0000000000000000</t>
+          <t>647198730.0000000000000000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2105,19 +2109,19 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1794346876.4148975404160060</t>
+          <t>1733507718.7465903318198380</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2127,29 +2131,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>390934204.0000000000000000</t>
+          <t>25974676335.9357300000000000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1687107422.5141181281472516</t>
+          <t>1662632166.5187108892094154</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2159,29 +2163,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>25943375617.3953000000000000</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://explorer.kaspa.org/</t>
-        </is>
-      </c>
+          <t>517716590.0562826400000000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1672487758.0683583333113078</t>
+          <t>1614687515.5182314223618189</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2191,29 +2191,29 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8530799349.0386210000000000</t>
+          <t>587939919.1432680000000000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1552633403.3903020859105310</t>
+          <t>1564890099.0905303544709598</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2223,29 +2223,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4617913336.0000000000000000</t>
+          <t>8558582711.3113960000000000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1547508740.9621073660913224</t>
+          <t>1554675043.2467060545544992</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2255,29 +2255,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>83733353.1605750500000000</t>
+          <t>2880000000.0000000000000000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1469108246.9620492698586157</t>
+          <t>1430862496.3599528960000000</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2287,29 +2287,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2880000000.0000000000000000</t>
+          <t>4617913336.0000000000000000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1444885033.7650688640000000</t>
+          <t>1420139889.8379239308798264</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2319,29 +2319,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>258757414.0000000000000000</t>
+          <t>125043917.8513356400000000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1367680428.0332902066306528</t>
+          <t>1250314144.4984254247287218</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2351,29 +2351,29 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>122543917.8513356400000000</t>
+          <t>83733353.1605750500000000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1358888696.5070987524859802</t>
+          <t>1218685268.6669135210688053</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
+          <t>1556969728.9434000000000000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1311417512.5856234733158540</t>
+          <t>1205158133.1493574195237865</t>
         </is>
       </c>
     </row>
@@ -2425,19 +2425,19 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1226760960.9952483908518358</t>
+          <t>1119318979.0682605827260808</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2447,29 +2447,29 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2520000000.0000000000000000</t>
+          <t>848074.4183746700000000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1202451897.8549062440000000</t>
+          <t>1119230092.4318602183540863</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2479,29 +2479,29 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>848074.4183746700000000</t>
+          <t>259183351.0000000000000000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1083740388.2342325489542163</t>
+          <t>1091841682.1153487002599354</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2511,13 +2511,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2450000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>2520000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1065454198.6407229750000000</t>
+          <t>1081287431.2032319800000000</t>
         </is>
       </c>
     </row>
@@ -2549,19 +2553,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1049250389.0667149854776313</t>
+          <t>1070137974.7464171265768436</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2571,25 +2575,29 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1768317543.3900000000000000</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>2690911111.1000000000000000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>962507580.9806229712757570</t>
+          <t>1048220976.6854134920230352</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Wrapped BNB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2599,25 +2607,29 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1214684893.7497473000000000</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>1582884.5398480400000000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>958571455.1192458108830055</t>
+          <t>962080899.7877512692773793</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2627,29 +2639,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1519244275.4994400000000000</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://explorer.stacks.co/</t>
-        </is>
-      </c>
+          <t>2450000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>953591446.1190479056549185</t>
+          <t>910384172.1294545400000000</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2659,29 +2667,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1555739230.6061000000000000</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://bloks.io/</t>
-        </is>
-      </c>
+          <t>1231343181.0240097000000000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>924549006.9580034266694475</t>
+          <t>909904018.3320902983290284</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2691,17 +2695,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>898876668.3664447000000000</t>
+          <t>1520164889.8252900000000000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>896443286.3304420507741820</t>
+          <t>904876589.9150746740346727</t>
         </is>
       </c>
     </row>
@@ -2729,19 +2733,19 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>891548861.1944960000654884</t>
+          <t>858000195.3501078620580558</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2751,25 +2755,29 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>824686961.8233138000000000</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>882787928.7271338279235106</t>
+          <t>822680424.6990433782294775</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2779,29 +2787,29 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>9775189789.3182130000000000</t>
+          <t>12072738.0000000000000000</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>881726841.4225415106382148</t>
+          <t>818843419.3602854177004138</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2811,13 +2819,13 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4882361111.0000000000000000</t>
+          <t>381867255.1445740000000000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>876452745.4987871402788793</t>
+          <t>803880666.8217183247126867</t>
         </is>
       </c>
     </row>
@@ -2849,19 +2857,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>875455769.9508351999554378</t>
+          <t>802426773.4879464383555385</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2871,29 +2879,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
-        </is>
-      </c>
+          <t>4882361111.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>843164617.3574918256825774</t>
+          <t>794629792.2037612387901557</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2903,29 +2907,29 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>60983663777.0100000000000000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>825090255.4090631000000000</t>
+          <t>793870937.8793804185824875</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2935,29 +2939,29 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
+          <t>9775189789.3182130000000000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>815748307.4967140905742437</t>
+          <t>788212152.4479778899377274</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2967,29 +2971,29 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>802871349.4263150000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>801762690.4410470682681000</t>
+          <t>768564979.5110045000000000</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2999,25 +3003,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
+          <t>1768317543.3900000000000000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>792133992.3010214393520000</t>
+          <t>756586661.2396060890663307</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3027,29 +3031,29 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>897877243.8587132000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>781963907.7790665377340163</t>
+          <t>751792096.1931798647792984</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3059,29 +3063,29 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
+          <t>897877243.8587132000000000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>767207208.6997688288921932</t>
+          <t>739977781.4038349789355534</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3091,29 +3095,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>733086867.3976470000000000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>692716043.1744293225867631</t>
+          <t>732126248.4774196029118622</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3123,29 +3127,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>310420802.2000000000000000</t>
+          <t>1037953209.9107300000000000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>689328171.0181693643410743</t>
+          <t>677264286.4946782053271022</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3155,29 +3159,29 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>43759805521.5825650000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>682073294.9507409179461589</t>
+          <t>673046854.8252559808944393</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3187,29 +3191,29 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1036889881.7602220000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>679515144.1914802995852663</t>
+          <t>646634535.3639997583141780</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3219,29 +3223,29 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
+          <t>43851266304.4428200000000000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>674628377.5776187305721227</t>
+          <t>643745590.7862872811604599</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3251,29 +3255,29 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>664200063.8926383444105000</t>
+          <t>643367637.3628503994889545</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3283,29 +3287,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
+          <t>5966455361.8200000000000000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>658079319.4493791258409206</t>
+          <t>636422358.7523524971223351</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3315,29 +3319,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3688810566.0000000000000000</t>
+          <t>1310978944.0000000000000000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>639076930.0121098553281614</t>
+          <t>628612699.3910687576028288</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3347,29 +3351,29 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>19844809.3750000000000000</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>635134845.9482837969501684</t>
+          <t>621665728.3100299352100000</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3379,29 +3383,29 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1307677861.0000000000000000</t>
+          <t>3707948285.0000000000000000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>629929521.8492605763358876</t>
+          <t>608386041.1970593870216845</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3411,29 +3415,29 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>15886821.0000000000000000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>618044828.8354813040505744</t>
+          <t>603962021.5764952732327353</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3443,29 +3447,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1572540589.3190167000000000</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://flowscan.org/</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>604688115.9882250625751175</t>
+          <t>601823911.1512187821200000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3475,29 +3475,29 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>301827011.9503255500000000</t>
+          <t>19847437.5000000000000000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>604192008.2020432893830351</t>
+          <t>599408070.5143515129279750</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3507,29 +3507,29 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>179760925.5581076000000000</t>
+          <t>1574016688.1911110000000000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>584083082.9055908344448669</t>
+          <t>576745506.6377685298954694</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3539,29 +3539,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>313001722.0000000000000000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>578906400.6221349658349037</t>
+          <t>538878999.9349090940691448</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3571,17 +3571,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>35599404.0400000000000000</t>
+          <t>295586537.9426779000000000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>569217007.7225569586693963</t>
+          <t>532855478.9560041510025287</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>566159850.6601782715478274</t>
+          <t>529624400.1400360115680102</t>
         </is>
       </c>
     </row>
